--- a/java_auto_Athena/api_athena/target/test-classes/Athena2.xlsx
+++ b/java_auto_Athena/api_athena/target/test-classes/Athena2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
   <si>
     <t>Name接口名称</t>
   </si>
@@ -59,7 +59,7 @@
     <t>传手机号,不传密码</t>
   </si>
   <si>
-    <t>http://192.168.86.135:8080/app/mobile/api/user/register</t>
+    <t>http://192.168.86.136:8080/app/mobile/api/user/register</t>
   </si>
   <si>
     <t>json</t>
@@ -104,24 +104,33 @@
     <t>登录</t>
   </si>
   <si>
-    <t>http://192.168.86.135:8080/app/mobile/api/user/login</t>
+    <t>http://192.168.86.136:8080/app/mobile/api/user/login</t>
   </si>
   <si>
     <t>{"mobile":"35696874502","password":"","gqid":"4000002"}</t>
   </si>
   <si>
+    <t>{"code":8,"msg":"登陆失败","data":{}}</t>
+  </si>
+  <si>
     <t>{"$.code":8,"$.msg":"登陆失败"}</t>
   </si>
   <si>
     <t>{"mobile":"","password":"123456","gqid":"4000002"}</t>
   </si>
   <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647773744514,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
     <t>{"$.code":0,"$.msg":"成功调用","$.data.id":80}</t>
   </si>
   <si>
     <t>{"mobile":"35696874502000000","password":"123456","gqid":"4000002"}</t>
   </si>
   <si>
+    <t>{"code":5,"msg":"用户不存在","data":{}}</t>
+  </si>
+  <si>
     <t>{"$.code":5,"$.msg":"用户不存在"}</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>{"mobile":"${user}","password":"${pwd}","gqid":"${gqid}"}</t>
   </si>
   <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1647773745694,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
     <t>{"$.code":0,"$.msg":"成功调用"}</t>
   </si>
   <si>
@@ -182,43 +194,37 @@
     <t/>
   </si>
   <si>
-    <t>{"code":8,"msg":"登陆失败","data":{}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647771558251,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":5,"msg":"用户不存在","data":{}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647771676995,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647771702501,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647771890336,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647772213817,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647772516367,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647772668770,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647772747986,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1647772748911,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1647772877325,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1647772878374,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+    <t>success</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648049676263,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648049677122,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648124822927,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648124824448,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648124994674,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648124995274,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648125011534,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648125012223,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648125472795,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648125473439,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
   </si>
 </sst>
 </file>
@@ -267,6 +273,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -275,8 +349,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,51 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -343,51 +388,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,79 +404,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,103 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,6 +595,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -607,17 +628,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,40 +671,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,10 +715,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,115 +733,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1192,7 +1198,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1420,12 +1426,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D7" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D2" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/register" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/register" tooltip="http://192.168.86.136:8080/app/mobile/api/user/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1437,8 +1443,8 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1492,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:9">
+    <row r="2" ht="27" spans="1:9">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1502,7 +1508,7 @@
       <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="9" t="s">
@@ -1515,13 +1521,16 @@
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:9">
+    <row r="3" ht="135" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>27</v>
       </c>
@@ -1541,13 +1550,16 @@
         <v>15</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:9">
@@ -1570,13 +1582,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:9">
@@ -1599,16 +1614,19 @@
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:9">
+    <row r="6" ht="148.5" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -1628,20 +1646,24 @@
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://192.168.86.135:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://192.168.86.136:8080/app/mobile/api/user/login" tooltip="http://192.168.86.135:8080/app/mobile/api/user/register"/>
+    <hyperlink ref="D2" r:id="rId2" display="http://192.168.86.136:8080/app/mobile/api/user/login"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1705,16 +1727,16 @@
     </row>
     <row r="2" ht="108" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
@@ -1723,13 +1745,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1796,16 +1818,16 @@
     </row>
     <row r="2" ht="81" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>14</v>
@@ -1814,13 +1836,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1886,16 +1908,16 @@
     </row>
     <row r="2" ht="27" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>14</v>
@@ -1904,13 +1926,13 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/java_auto_Athena/api_athena/target/test-classes/Athena2.xlsx
+++ b/java_auto_Athena/api_athena/target/test-classes/Athena2.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="79">
   <si>
     <t>Name接口名称</t>
   </si>
@@ -225,6 +225,36 @@
   </si>
   <si>
     <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648125473439,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648125545926,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648125546634,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648125990624,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648125991343,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648130564912,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648130565825,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648130640459,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648130641235,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":80,"username":"4000003","sex":1,"age":20,"mobile":"","email":"","gqid":"4000003","money":0.0,"pmoney":100.0,"createtime":1448515307000,"lasttime":1648131546389,"token":"Gv0e9i65zoArjkWP5i5z8NT2JruL2vYAcHEIhHtI4yzJCkgj2tTxrjgz3eEAEEyxxRU/jxaEwo/fQbjJJq9BrA==","identity":"82afaa6d5bd13b20"}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"成功调用","data":{"id":160188,"username":"4000124","sex":1,"age":20,"mobile":"15196174070","email":"","gqid":"4000124","money":0.0,"pmoney":100.0,"createtime":1647770955000,"lasttime":1648131546933,"token":"+dqMISEio21Z1t7oPXpj9WRWp6b5BkN5kGNgt1oz2FTwOC01Q9VwKZKc4h/KuXdxxRU/jxaEwo/fQbjJJq9BrA==","identity":"d06e830d9b4443df"}}</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1583,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>34</v>
@@ -1649,7 +1679,7 @@
         <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>41</v>
